--- a/public/assets/upload/Car Registration Form.xlsx
+++ b/public/assets/upload/Car Registration Form.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82109\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82109\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76BC6D64-1B8A-4CDC-9ECB-1C8A32ECAA42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1079847D-D2A4-4CCF-BAFE-FFC249597398}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9555" yWindow="3480" windowWidth="34440" windowHeight="15945" xr2:uid="{4D3441A3-CB86-43F1-88CC-AD23E32EC382}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="38700" windowHeight="15435" xr2:uid="{4D3441A3-CB86-43F1-88CC-AD23E32EC382}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Car Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +45,10 @@
   </si>
   <si>
     <t>* Only 100 lists are allowed. (up to line 101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Car Owner's Phone Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BAF73C2-7ED0-4B1E-9F9D-7AD4DCB87CA2}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -442,34 +446,39 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.75" customWidth="1"/>
-    <col min="2" max="2" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
     </row>

--- a/public/assets/upload/Car Registration Form.xlsx
+++ b/public/assets/upload/Car Registration Form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82109\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1079847D-D2A4-4CCF-BAFE-FFC249597398}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E6D33E9-535A-40AB-B5A8-DB32475B881B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3030" windowWidth="38700" windowHeight="15435" xr2:uid="{4D3441A3-CB86-43F1-88CC-AD23E32EC382}"/>
+    <workbookView xWindow="13425" yWindow="4605" windowWidth="29310" windowHeight="15435" xr2:uid="{4D3441A3-CB86-43F1-88CC-AD23E32EC382}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,19 +36,23 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Car Number</t>
+    <t>Car Owner's Phone Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>* Fill in the form accordingly!</t>
+    <t>Car Number(No Spaces)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>* Only 100 lists are allowed. (up to line 101)</t>
+    <t>* Precautions *</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Car Owner's Phone Number</t>
+    <t xml:space="preserve">
+1. You can upload up to 1,000 lists at a time.
+2. Please write the data on the current sheet.
+3. Please fill in the appropriate form in the current form.
+4. Enter the Car Number as required, excluding spaces.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -56,7 +60,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,8 +85,33 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFC00000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,6 +121,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -110,18 +145,34 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,52 +488,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BAF73C2-7ED0-4B1E-9F9D-7AD4DCB87CA2}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.75" customWidth="1"/>
-    <col min="2" max="3" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="35.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="57.375" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="2"/>
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
       <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
       <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
       <c r="B5" s="2"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D15" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:D13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
